--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Hp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Hp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F90ED-7E15-48A4-B228-EE88C7944AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC5EBD-5D49-42FC-BB85-1D201F71FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -717,33 +717,14 @@
     <t>LineAmt</t>
   </si>
   <si>
-    <t>1.優先取用對保日期
-2.無對保日採用准駁日
-3.若無上述二個日期，以空值提供</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>額度初貸日(若尚未撥款，以空值列示)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>作為群組分類。Ex:1=員工；2=車貸；3＝房貸；4＝政府優惠貸款…etc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>RecycleCode</t>
   </si>
   <si>
     <t>IrrevocableFlag</t>
-  </si>
-  <si>
-    <t>0: 非循環動用  1: 循環動用
-若註記為1，且本金餘額＜核准金額，但是可動用餘額=0；需確認是否實為循環額度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=是 0=否</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主計處行業別代碼</t>
@@ -957,11 +938,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1=企業戶(含企金自然人)
-2=個人戶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NVL(HP."ApproveDate",0)</t>
   </si>
   <si>
@@ -1064,6 +1040,47 @@
   <si>
     <t>Usp_L7_LoanIfrs9Hp_Upd</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:企業戶(含企金自然人)
+2:個人戶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:優先取用對保日期
+2:無對保日採用准駁日
+3:若無上述二個日期，以空值提供</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作為群組分類。Ex：1=員工；2=車貸；3＝房貸；4＝政府優惠貸款…etc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非循環動用
+1:循環動用
+若註記為1，且本金餘額＜核准金額，但是可動用餘額=0；需確認是否實為循環額度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是
+0:否</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:土地
+2:房地-台北市
+3:房地-新北市
+4:房地-桃園市
+5:房地-台中市
+6:房地-台南市
+7:房地-高雄市
+8:房地-其他(基隆市、新竹縣、新竹市、苗栗縣、彰化縣、南投縣、雲林縣、嘉義縣、嘉義市、屏東縣、宜蘭縣、花蓮縣、臺東縣、金門縣、澎湖縣、連江縣、南海島、釣魚臺
+9:股票
+10:機器設備
+11:車子
+12:銀行保證</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2091,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2113,10 +2130,10 @@
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2143,7 +2160,7 @@
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="17"/>
@@ -2222,7 +2239,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2266,7 +2283,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="13"/>
       <c r="H10" s="70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2288,7 +2305,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="13"/>
       <c r="H11" s="70" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2310,7 +2327,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="13"/>
       <c r="H12" s="70" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2332,7 +2349,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="13"/>
       <c r="H13" s="70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -2353,10 +2370,10 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -2364,10 +2381,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>36</v>
@@ -2377,10 +2394,10 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2401,10 +2418,10 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2428,7 +2445,7 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="70" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2436,7 +2453,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>103</v>
@@ -2449,10 +2466,10 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="88.2" x14ac:dyDescent="0.3">
@@ -2460,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>104</v>
@@ -2476,15 +2493,15 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>12</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>105</v>
@@ -2497,10 +2514,10 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H20" s="70" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -2508,10 +2525,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>3</v>
@@ -2521,10 +2538,10 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -2532,10 +2549,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>3</v>
@@ -2545,10 +2562,10 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H22" s="70" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2569,10 +2586,10 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H23" s="70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2580,7 +2597,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>48</v>
@@ -2593,10 +2610,10 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H24" s="70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2617,10 +2634,10 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H25" s="70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2641,10 +2658,10 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H26" s="70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="243" x14ac:dyDescent="0.3">
@@ -2652,10 +2669,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>31</v>
@@ -2665,10 +2682,10 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="13" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="H27" s="70" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2676,10 +2693,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>31</v>
@@ -2691,10 +2708,10 @@
         <v>8</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2702,10 +2719,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>31</v>
@@ -2718,7 +2735,7 @@
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="70" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2726,7 +2743,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>98</v>
@@ -2742,7 +2759,7 @@
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="70" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3086,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3111,13 +3128,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3142,27 +3159,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="68.400000000000006" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="114" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="66" customFormat="1" ht="102.6" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="66" customFormat="1" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="66" customFormat="1" ht="11.4" x14ac:dyDescent="0.3">
@@ -3212,7 +3229,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="194.4" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -3273,12 +3290,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="239.4" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
